--- a/medicine/Sexualité et sexologie/Prostitution_masculine_dans_l'art/Prostitution_masculine_dans_l'art.xlsx
+++ b/medicine/Sexualité et sexologie/Prostitution_masculine_dans_l'art/Prostitution_masculine_dans_l'art.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prostitution_masculine_dans_l%27art</t>
+          <t>Prostitution_masculine_dans_l'art</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prostitué ou hustler[1] est un stéréotype fréquemment rencontré dans la littérature ou les films occidentaux à partir des années 1960 et, plus particulièrement, lors de sujets traitant d'homosexualité. Ils peuvent alors être considérés comme des personnages type. Ils paraissent parfois dans des annonces pour des chansons connues (The Bravery), des campagnes publicitaires et autres arts visuels.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prostitué ou hustler est un stéréotype fréquemment rencontré dans la littérature ou les films occidentaux à partir des années 1960 et, plus particulièrement, lors de sujets traitant d'homosexualité. Ils peuvent alors être considérés comme des personnages type. Ils paraissent parfois dans des annonces pour des chansons connues (The Bravery), des campagnes publicitaires et autres arts visuels.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prostitution_masculine_dans_l%27art</t>
+          <t>Prostitution_masculine_dans_l'art</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Stéréotypes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prostitué est le plus souvent un séducteur au destin tragique. Ce stéréotype est révélateur à la fois de la fascination qu'il exerce en tant qu'objet sexuel et le dédain qu'inspirent son statut social et son mode de vie. Il concerne, le plus souvent un homme jeune ou un adolescent ayant fui le milieu familial en raison de son orientation sexuelle ou/et d'abus sexuels. Il est fréquemment dépeint comme un drogué ou un voleur. L'accent est souvent mis sur une crise de l'adolescence ou la nécessité de gagner suffisamment d'argent pour satisfaire un besoin (traitement médical, cadeau, drogue). À terme, deux possibilités s'offrent au prostitué :
 – il peut abandonner le commerce de son corps et réintégrer la société ;
@@ -519,7 +533,7 @@
 Les films et romans qui relatent le point de vue du client ou d'un/une petit(e) ami(e) devenu(e) amoureux/amoureuse du prostitué font de ce dernier un personnage pour lequel tout amour est impossible et aboutit finalement à la souffrance et à la frustration. L'amoureux/amoureuse peut devenir jaloux/jalouse et gêné(e) par le travail de son amant. Exceptionnellement, il/elle s'adonnera, à son tour, à la prostitution. Les clients plus âgés, amoureux du prostitué, sont fréquemment en proie à des souffrances morales et parfois physiques (par exemple la mort de Pier Paolo Pasolini ou de Rudolph Moshammer).
 À l'opposé, le prostitué est parfois dépeint comme un rebelle vivant en marge de la loi et des conventions sociales bourgeoises. Cette image Nietzschéenne du prostitué doit beaucoup aux écrits de Jean Genet, William S. Burroughs et John Rechy pour ne citer qu'eux.
 Bien que moins fréquent au cinéma et dans les romans, le prostitué dont la clientèle est exclusivement féminine (gigolo, escort), est habituellement dépeint de façon moins tragique que le prostitué homosexuel (le gigolo est plus âgé, athlétique, bien habillé, etc.). Les films comme American Gigolo ont beaucoup fait pour donner à ce personnage le cliché d'un séducteur raffiné. Ce portrait flatteur a aussi conduit à une satire cinématographique (Deuce Bigalow).
-Le portrait du client (encore appelé john dans les pays anglo-saxons) est bien moins codifié dans la culture populaire que celui du « hustler[1] » et recouvre une large gamme de personnages différents allant du mari délaissé au tueur en série en passant par l'individu qui-se-déteste-enfermé-en-tête-à-tête-avec-lui-même et l'homme d'affaires exploiteur ou sympathique.
+Le portrait du client (encore appelé john dans les pays anglo-saxons) est bien moins codifié dans la culture populaire que celui du « hustler » et recouvre une large gamme de personnages différents allant du mari délaissé au tueur en série en passant par l'individu qui-se-déteste-enfermé-en-tête-à-tête-avec-lui-même et l'homme d'affaires exploiteur ou sympathique.
 La diversité de ces stéréotypes est très révélatrice de la vision qu'a chaque auteur ou réalisateur concernant l'amour, la sexualité, le pouvoir et la moralité.
 Ces stéréotypes peuvent se fonder sur des faits mais ils ne sauraient être considérés comme une réalité dans tous les cas.
 Les mêmes thèmes concernant la prostitution masculine (y compris la sécurité financière et le statut social du jeune amant « captif », les obsessions et le manque de sécurité de la part de l'amant le plus âgé vis-à-vis de son amour, la liberté sexuelle ou l'indifférence morale du prostitué) sont souvent développés dans la littérature et les films qui relatent l'amour ou les relations sexuelles - sans prostitution - entre un jeune amant et son/sa client(e) plus âgé(e) (par exemple dans le livre et le film de Pasolini, Théorème (1968), le film d'Harold Prince Something for Everyone (1970) ou celui de Bill Condon Ni dieux ni démons (1998).
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prostitution_masculine_dans_l%27art</t>
+          <t>Prostitution_masculine_dans_l'art</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Prostitution masculine et littérature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les romans et mémoires suivants mettent en scène des prostitués en tant que personnage principal.
 </t>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prostitution_masculine_dans_l%27art</t>
+          <t>Prostitution_masculine_dans_l'art</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,6 +599,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prostitution_masculine_dans_l%27art</t>
+          <t>Prostitution_masculine_dans_l'art</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Films dont le prostitué est le personnage principal
-Autres films incluant de la prostitution masculine
-La Triche (France, 1984), réalisé par Yannick Bellon avec les acteurs Victor Lanoux et Xavier Deluc).
+          <t>Autres films incluant de la prostitution masculine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Triche (France, 1984), réalisé par Yannick Bellon avec les acteurs Victor Lanoux et Xavier Deluc).
 JFK (États-Unis, 1991), réalisé par Oliver Stone - Kevin Bacon tient le rôle d'un prostitué homosexuel associé à Oswald.
 By The Dawn's Early Light (Danemark : 1993), réalisé par Knud Vesterskov ; narrateur : David Wojnarowicz).
 L.A. Confidential (États-Unis, 1997), réalisé par Curtis Hanson - Un extra raconte l'histoire d'un jeune garçon, futur acteur, qui accepte de se prostituer auprès du district atorney (procureur) moyennant finances et finit égorgé.
@@ -620,8 +642,7 @@
 Minuit dans le jardin du bien et du mal (États-Unis, 1997), réalisé par Clint Eastwood, avec les acteurs Kevin Spacey, Jude Law et John Cusack) - Tiré du livre à succès de John Berendt : un citoyen en vue de Savannah (Kevin Spacey) abat son amant.
 Happy Together (Hong Kong, 1997, parlant mardarin, cantonais et espagnol), réalisé par Wong Kar-wai, avec les acteurs Leslie Cheung et Tony Leung Chiu-wai) - Le fougueux et irresponsable Ho Po-Wing (Chang) gagne sa vie dans la rue.
 A.I. Intelligence artificielle (États-Unis, 2001), réalisé par Steven Spielberg, avec Haley Joel Osment et Jude Law.
-Vers le sud (France, 2005), réalisé par Laurent Cantet.
-Films documentaires concernant la prostitution masculine</t>
+Vers le sud (France, 2005), réalisé par Laurent Cantet.</t>
         </is>
       </c>
     </row>
@@ -631,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Prostitution_masculine_dans_l%27art</t>
+          <t>Prostitution_masculine_dans_l'art</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,7 +670,9 @@
           <t>Prostitution masculine à la télévision</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Un prostitué est le personnage principal des programmes télévisés suivants :
 </t>
@@ -662,7 +685,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Prostitution_masculine_dans_l%27art</t>
+          <t>Prostitution_masculine_dans_l'art</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -680,7 +703,9 @@
           <t>Prostitués masculins dans des albums photos</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les photographes suivants utilisent fréquemment des portraits de prostitués pour leur travail :
 Alberto Sorbelli
